--- a/Unity/Assets/Config/Excel/BulletConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BulletConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
-    <sheet name="BulletConfigProto" sheetId="6" r:id="rId1"/>
+    <sheet name="球形子弹" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -35,19 +35,85 @@
     <t>Id</t>
   </si>
   <si>
+    <t>BulletShape</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>IntervalCasts</t>
+  </si>
+  <si>
+    <t>IntervalActions</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>CreateActions</t>
+  </si>
+  <si>
+    <t>DestroyActions</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>list,int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
     <t>子弹编号</t>
+  </si>
+  <si>
+    <t>子弹形状</t>
+  </si>
+  <si>
+    <t>子弹持续时长</t>
+  </si>
+  <si>
+    <t>结算间隔</t>
+  </si>
+  <si>
+    <t>结算技能编号</t>
+  </si>
+  <si>
+    <t>结算时行为</t>
+  </si>
+  <si>
+    <t>子弹模型</t>
+  </si>
+  <si>
+    <t>创建时触发行为</t>
+  </si>
+  <si>
+    <t>销毁前触发行为</t>
+  </si>
+  <si>
+    <t>球形子弹</t>
+  </si>
+  <si>
+    <t>fire_ball</t>
   </si>
 </sst>
 </file>
@@ -219,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,16 +647,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -599,90 +671,91 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -715,6 +788,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1043,68 +1125,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9" style="5"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="15" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:8">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="5">
-        <v>10001</v>
+      <c r="E6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/BulletConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BulletConfig.xlsx
@@ -50,15 +50,15 @@
     <t>IntervalActions</t>
   </si>
   <si>
+    <t>CreateActions</t>
+  </si>
+  <si>
+    <t>DestroyActions</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
-    <t>CreateActions</t>
-  </si>
-  <si>
-    <t>DestroyActions</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -101,13 +101,13 @@
     <t>结算时行为</t>
   </si>
   <si>
+    <t>创建时触发行为</t>
+  </si>
+  <si>
+    <t>销毁前触发行为</t>
+  </si>
+  <si>
     <t>子弹模型</t>
-  </si>
-  <si>
-    <t>创建时触发行为</t>
-  </si>
-  <si>
-    <t>销毁前触发行为</t>
   </si>
   <si>
     <t>球形子弹</t>
@@ -748,56 +748,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1128,44 +1123,44 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="15" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="20" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="15" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1179,87 +1174,87 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1273,35 +1268,35 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>10001</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>200</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/BulletConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BulletConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -35,7 +35,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>BulletShape</t>
+    <t>SelectTargetType</t>
+  </si>
+  <si>
+    <t>SelectTargetsParam</t>
   </si>
   <si>
     <t>TotalTime</t>
@@ -56,7 +59,16 @@
     <t>DestroyActions</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>TargetCount</t>
+  </si>
+  <si>
+    <t>TickLimit</t>
+  </si>
+  <si>
+    <t>Tick1</t>
+  </si>
+  <si>
+    <t>Tick2</t>
   </si>
   <si>
     <t>##type</t>
@@ -65,12 +77,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>SelectTargetsParams</t>
+  </si>
+  <si>
     <t>list,int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -86,7 +98,13 @@
     <t>子弹编号</t>
   </si>
   <si>
-    <t>子弹形状</t>
+    <t>子弹目标选择类型</t>
+  </si>
+  <si>
+    <t>技能作用参数类型</t>
+  </si>
+  <si>
+    <t>技能作用参数</t>
   </si>
   <si>
     <t>子弹持续时长</t>
@@ -107,13 +125,22 @@
     <t>销毁前触发行为</t>
   </si>
   <si>
-    <t>子弹模型</t>
-  </si>
-  <si>
-    <t>球形子弹</t>
-  </si>
-  <si>
-    <t>fire_ball</t>
+    <t>目标个数</t>
+  </si>
+  <si>
+    <t>结算次数限制</t>
+  </si>
+  <si>
+    <t>100ms执行</t>
+  </si>
+  <si>
+    <t>1000ms执行</t>
+  </si>
+  <si>
+    <t>单体</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -126,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +168,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -491,10 +530,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -617,138 +674,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,22 +833,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1120,27 +1222,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="15" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="18.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" customWidth="1"/>
+    <col min="5" max="7" width="11.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="15" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1150,160 +1256,209 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:17">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+    <row r="3" s="3" customFormat="1" spans="1:11">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:11">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:13">
       <c r="B6" s="5">
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5">
         <v>2000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="I6" s="5">
         <v>200</v>
       </c>
-      <c r="G6" s="5">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="M6" s="6">
         <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/BulletConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BulletConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="球形子弹" sheetId="6" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>子弹编号</t>
   </si>
   <si>
-    <t>子弹目标选择类型</t>
+    <t>选择目标类型</t>
   </si>
   <si>
     <t>技能作用参数类型</t>
@@ -805,7 +805,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,13 +824,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,53 +1228,53 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24" style="5" customWidth="1"/>
-    <col min="5" max="7" width="11.125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24" style="6" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="5" customWidth="1"/>
     <col min="9" max="11" width="15" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1294,31 +1297,31 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:17">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1340,68 +1343,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
-      <c r="A3" s="17" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:11">
-      <c r="A4" s="22" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1430,7 +1425,7 @@
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="5">
@@ -1445,10 +1440,10 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/BulletConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BulletConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="球形子弹" sheetId="6" r:id="rId1"/>
@@ -805,7 +805,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,9 +828,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,9 +845,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,9 +857,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -873,9 +864,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,7 +1216,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1256,15 +1244,15 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1297,21 +1285,21 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1344,30 +1332,30 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="8" t="s">
@@ -1376,17 +1364,17 @@
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,6 +1415,9 @@
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>2000</v>
